--- a/Simple_XLS_Importer/data/IFPRI-GHI/IFPRI-GHI-Child_Stunting.xlsx
+++ b/Simple_XLS_Importer/data/IFPRI-GHI/IFPRI-GHI-Child_Stunting.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="525" windowWidth="17415" windowHeight="5835"/>
+    <workbookView xWindow="750" yWindow="525" windowWidth="17415" windowHeight="5835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
     <sheet name="metadata" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -359,9 +359,6 @@
     <t>IFPRI</t>
   </si>
   <si>
-    <t>DAT-0</t>
-  </si>
-  <si>
     <t>LBY</t>
   </si>
   <si>
@@ -402,6 +399,9 @@
   </si>
   <si>
     <t>GHI-Child_Stunting</t>
+  </si>
+  <si>
+    <t>GHI</t>
   </si>
 </sst>
 </file>
@@ -779,7 +779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -801,7 +801,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="3">
         <v>2015</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="3">
         <v>1995</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="3">
         <v>2000</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" s="3">
         <v>2005</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="44" spans="1:3" ht="12.75">
       <c r="A44" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B44" s="3">
         <v>2015</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="45" spans="1:3" ht="12.75">
       <c r="A45" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B45" s="3">
         <v>1990</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="46" spans="1:3" ht="12.75">
       <c r="A46" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B46" s="3">
         <v>1995</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="47" spans="1:3" ht="12.75">
       <c r="A47" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B47" s="3">
         <v>2000</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="48" spans="1:3" ht="12.75">
       <c r="A48" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B48" s="3">
         <v>2005</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="63" spans="1:3" ht="12.75">
       <c r="A63" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B63" s="3">
         <v>2015</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="64" spans="1:3" ht="12.75">
       <c r="A64" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B64" s="3">
         <v>1990</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="65" spans="1:3" ht="12.75">
       <c r="A65" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B65" s="3">
         <v>1995</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="66" spans="1:3" ht="12.75">
       <c r="A66" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B66" s="3">
         <v>2000</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="67" spans="1:3" ht="12.75">
       <c r="A67" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B67" s="3">
         <v>2005</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="96" spans="1:3" ht="12.75">
       <c r="A96" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B96" s="3">
         <v>2015</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="97" spans="1:3" ht="12.75">
       <c r="A97" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B97" s="3">
         <v>1990</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="98" spans="1:3" ht="12.75">
       <c r="A98" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B98" s="3">
         <v>1995</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="99" spans="1:3" ht="12.75">
       <c r="A99" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B99" s="3">
         <v>2000</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="100" spans="1:3" ht="12.75">
       <c r="A100" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B100" s="3">
         <v>2005</v>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="136" spans="1:3" ht="12.75">
       <c r="A136" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B136" s="3">
         <v>2015</v>
@@ -2286,7 +2286,7 @@
     </row>
     <row r="137" spans="1:3" ht="12.75">
       <c r="A137" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B137" s="3">
         <v>1990</v>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="138" spans="1:3" ht="12.75">
       <c r="A138" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B138" s="3">
         <v>1995</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="139" spans="1:3" ht="12.75">
       <c r="A139" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B139" s="3">
         <v>2000</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="140" spans="1:3" ht="12.75">
       <c r="A140" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B140" s="3">
         <v>2005</v>
@@ -2616,7 +2616,7 @@
     </row>
     <row r="167" spans="1:3" ht="12.75">
       <c r="A167" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B167" s="3">
         <v>2015</v>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="168" spans="1:3" ht="12.75">
       <c r="A168" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B168" s="3">
         <v>1990</v>
@@ -2638,7 +2638,7 @@
     </row>
     <row r="169" spans="1:3" ht="12.75">
       <c r="A169" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B169" s="3">
         <v>1995</v>
@@ -2649,7 +2649,7 @@
     </row>
     <row r="170" spans="1:3" ht="12.75">
       <c r="A170" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B170" s="3">
         <v>2000</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="171" spans="1:3" ht="12.75">
       <c r="A171" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B171" s="3">
         <v>2005</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="196" spans="1:3" ht="12.75">
       <c r="A196" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B196" s="3">
         <v>2015</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="197" spans="1:3" ht="12.75">
       <c r="A197" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B197" s="3">
         <v>1995</v>
@@ -2957,7 +2957,7 @@
     </row>
     <row r="198" spans="1:3" ht="12.75">
       <c r="A198" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B198" s="3">
         <v>2000</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="199" spans="1:3" ht="12.75">
       <c r="A199" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B199" s="3">
         <v>2005</v>
@@ -5542,7 +5542,7 @@
     </row>
     <row r="433" spans="1:3" ht="12.75">
       <c r="A433" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B433" s="3">
         <v>2015</v>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="434" spans="1:3" ht="12.75">
       <c r="A434" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B434" s="3">
         <v>1990</v>
@@ -5564,7 +5564,7 @@
     </row>
     <row r="435" spans="1:3" ht="12.75">
       <c r="A435" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B435" s="3">
         <v>1995</v>
@@ -5575,7 +5575,7 @@
     </row>
     <row r="436" spans="1:3" ht="12.75">
       <c r="A436" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B436" s="3">
         <v>2000</v>
@@ -5586,7 +5586,7 @@
     </row>
     <row r="437" spans="1:3" ht="12.75">
       <c r="A437" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B437" s="3">
         <v>2005</v>
@@ -5762,7 +5762,7 @@
     </row>
     <row r="453" spans="1:3" ht="12.75">
       <c r="A453" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B453" s="3">
         <v>2015</v>
@@ -5773,7 +5773,7 @@
     </row>
     <row r="454" spans="1:3" ht="12.75">
       <c r="A454" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B454" s="3">
         <v>1995</v>
@@ -5784,7 +5784,7 @@
     </row>
     <row r="455" spans="1:3" ht="12.75">
       <c r="A455" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B455" s="3">
         <v>2000</v>
@@ -6213,7 +6213,7 @@
     </row>
     <row r="494" spans="1:3" ht="12.75">
       <c r="A494" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B494" s="3">
         <v>2000</v>
@@ -6224,7 +6224,7 @@
     </row>
     <row r="495" spans="1:3" ht="12.75">
       <c r="A495" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B495" s="3">
         <v>2005</v>
@@ -6235,7 +6235,7 @@
     </row>
     <row r="496" spans="1:3" ht="12.75">
       <c r="A496" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B496" s="3">
         <v>2015</v>
@@ -6301,7 +6301,7 @@
     </row>
     <row r="502" spans="1:3" ht="12.75">
       <c r="A502" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B502" s="3">
         <v>2015</v>
@@ -6422,7 +6422,7 @@
     </row>
     <row r="513" spans="1:3" ht="12.75">
       <c r="A513" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B513" s="3">
         <v>1995</v>
@@ -6433,7 +6433,7 @@
     </row>
     <row r="514" spans="1:3" ht="12.75">
       <c r="A514" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B514" s="3">
         <v>2000</v>
@@ -6444,7 +6444,7 @@
     </row>
     <row r="515" spans="1:3" ht="12.75">
       <c r="A515" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B515" s="3">
         <v>2005</v>
@@ -8028,8 +8028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -8051,7 +8051,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8059,7 +8059,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:2">
